--- a/biology/Histoire de la zoologie et de la botanique/Jean_Marius_René_Guibé/Jean_Marius_René_Guibé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Marius_René_Guibé/Jean_Marius_René_Guibé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Marius_Ren%C3%A9_Guib%C3%A9</t>
+          <t>Jean_Marius_René_Guibé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Marius René Guibé, né le 18 février 1910 à Paris et mort le 4 mai 1999 à Caen, est un naturaliste et particulièrement herpétologiste français, professeur au Muséum national d'histoire naturelle de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Marius_Ren%C3%A9_Guib%C3%A9</t>
+          <t>Jean_Marius_René_Guibé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Marius René Guibé, issu d'une famille bretonne établie à Rennes, est né à Paris 4ème le 18 février 1910. C'est l'aîné de quatre enfants. Son père, médecin, est l'auteur d'une Chirurgie du thorax[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Marius René Guibé, issu d'une famille bretonne établie à Rennes, est né à Paris 4ème le 18 février 1910. C'est l'aîné de quatre enfants. Son père, médecin, est l'auteur d'une Chirurgie du thorax.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Marius_Ren%C3%A9_Guib%C3%A9</t>
+          <t>Jean_Marius_René_Guibé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anodonthyla rouxae
@@ -592,7 +608,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_Marius_Ren%C3%A9_Guib%C3%A9</t>
+          <t>Jean_Marius_René_Guibé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -610,7 +626,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grenouilles Boophis guibei, Mantidactylus guibei et Ptychadena guibei, le caméléon Calumma guibei et le gecko Lygodactylus guibei ont été nommés en son honneur.
 Le genre Guibemantis, regroupant plusieurs espèces d'amphibiens endémiques de Madagascar, a également été nommé en référence à Jean Guibé.
